--- a/Jogos_do_Dia/2023-07-24_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-24_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="153">
   <si>
     <t>League</t>
   </si>
@@ -133,21 +133,21 @@
     <t>Bulgaria First League</t>
   </si>
   <si>
+    <t>Sweden Superettan</t>
+  </si>
+  <si>
+    <t>Poland Ekstraklasa</t>
+  </si>
+  <si>
+    <t>Denmark Superliga</t>
+  </si>
+  <si>
     <t>Sweden Allsvenskan</t>
   </si>
   <si>
     <t>Norway Eliteserien</t>
   </si>
   <si>
-    <t>Denmark Superliga</t>
-  </si>
-  <si>
-    <t>Poland Ekstraklasa</t>
-  </si>
-  <si>
-    <t>Sweden Superettan</t>
-  </si>
-  <si>
     <t>Peru Primera División</t>
   </si>
   <si>
@@ -163,15 +163,15 @@
     <t>Argentina Prim B Nacional</t>
   </si>
   <si>
+    <t>Chile Primera B</t>
+  </si>
+  <si>
+    <t>Uruguay Primera División</t>
+  </si>
+  <si>
     <t>Brazil Serie B</t>
   </si>
   <si>
-    <t>Uruguay Primera División</t>
-  </si>
-  <si>
-    <t>Chile Primera B</t>
-  </si>
-  <si>
     <t>Brazil Serie A</t>
   </si>
   <si>
@@ -184,6 +184,12 @@
     <t>Colombia Categoria Primera A</t>
   </si>
   <si>
+    <t>Chile Primera División</t>
+  </si>
+  <si>
+    <t>Mexico Ascenso MX</t>
+  </si>
+  <si>
     <t>07:00:00</t>
   </si>
   <si>
@@ -238,6 +244,15 @@
     <t>21:00:00</t>
   </si>
   <si>
+    <t>21:15:00</t>
+  </si>
+  <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>22:05:00</t>
+  </si>
+  <si>
     <t>Gimpo Citizen</t>
   </si>
   <si>
@@ -253,24 +268,24 @@
     <t>Botev Vratsa</t>
   </si>
   <si>
+    <t>Helsingborg</t>
+  </si>
+  <si>
+    <t>Korona Kielce</t>
+  </si>
+  <si>
+    <t>Nordsjælland</t>
+  </si>
+  <si>
+    <t>GAIS</t>
+  </si>
+  <si>
     <t>Sirius</t>
   </si>
   <si>
     <t>Viking</t>
   </si>
   <si>
-    <t>Nordsjælland</t>
-  </si>
-  <si>
-    <t>Korona Kielce</t>
-  </si>
-  <si>
-    <t>Helsingborg</t>
-  </si>
-  <si>
-    <t>GAIS</t>
-  </si>
-  <si>
     <t>Deportivo Binacional</t>
   </si>
   <si>
@@ -301,36 +316,36 @@
     <t>Banfield</t>
   </si>
   <si>
+    <t>Deportes Santa Cruz</t>
+  </si>
+  <si>
+    <t>Universitario de Vinto</t>
+  </si>
+  <si>
+    <t>Cerro</t>
+  </si>
+  <si>
     <t>Londrina</t>
   </si>
   <si>
+    <t>Coritiba</t>
+  </si>
+  <si>
     <t>Vitória</t>
   </si>
   <si>
-    <t>Cerro</t>
-  </si>
-  <si>
-    <t>Universitario de Vinto</t>
-  </si>
-  <si>
-    <t>Deportes Santa Cruz</t>
-  </si>
-  <si>
-    <t>Coritiba</t>
-  </si>
-  <si>
     <t>Racing Club</t>
   </si>
   <si>
+    <t>EC São José</t>
+  </si>
+  <si>
     <t>Floresta</t>
   </si>
   <si>
     <t>Libertad</t>
   </si>
   <si>
-    <t>EC São José</t>
-  </si>
-  <si>
     <t>Boca Juniors</t>
   </si>
   <si>
@@ -340,6 +355,15 @@
     <t>Jaguares de Córdoba</t>
   </si>
   <si>
+    <t>San Martín San Juan</t>
+  </si>
+  <si>
+    <t>Audax Italiano</t>
+  </si>
+  <si>
+    <t>Atlante</t>
+  </si>
+  <si>
     <t>Ansan Greeners</t>
   </si>
   <si>
@@ -355,24 +379,24 @@
     <t>Slavia Sofia</t>
   </si>
   <si>
+    <t>Trelleborg</t>
+  </si>
+  <si>
+    <t>Śląsk Wrocław</t>
+  </si>
+  <si>
+    <t>Viborg</t>
+  </si>
+  <si>
+    <t>Västerås SK</t>
+  </si>
+  <si>
     <t>Mjällby</t>
   </si>
   <si>
     <t>Aalesund</t>
   </si>
   <si>
-    <t>Viborg</t>
-  </si>
-  <si>
-    <t>Śląsk Wrocław</t>
-  </si>
-  <si>
-    <t>Trelleborg</t>
-  </si>
-  <si>
-    <t>Västerås SK</t>
-  </si>
-  <si>
     <t>Deportivo Municipal</t>
   </si>
   <si>
@@ -403,36 +427,36 @@
     <t>Godoy Cruz</t>
   </si>
   <si>
+    <t>Univ. Concepción</t>
+  </si>
+  <si>
+    <t>Blooming</t>
+  </si>
+  <si>
+    <t>Plaza Colonia</t>
+  </si>
+  <si>
     <t>Botafogo SP</t>
   </si>
   <si>
+    <t>Fluminense</t>
+  </si>
+  <si>
     <t>Chapecoense</t>
   </si>
   <si>
-    <t>Plaza Colonia</t>
-  </si>
-  <si>
-    <t>Blooming</t>
-  </si>
-  <si>
-    <t>Univ. Concepción</t>
-  </si>
-  <si>
-    <t>Fluminense</t>
-  </si>
-  <si>
     <t>Central Córdoba SdE</t>
   </si>
   <si>
+    <t>Volta Redonda</t>
+  </si>
+  <si>
     <t>Figueirense</t>
   </si>
   <si>
     <t>Guaireña</t>
   </si>
   <si>
-    <t>Volta Redonda</t>
-  </si>
-  <si>
     <t>Newell's Old Boys</t>
   </si>
   <si>
@@ -440,6 +464,15 @@
   </si>
   <si>
     <t>Boyacá Chicó</t>
+  </si>
+  <si>
+    <t>Defensores de Belgrano</t>
+  </si>
+  <si>
+    <t>Curicó Unido</t>
+  </si>
+  <si>
+    <t>Leones Negros de la Universidad de Guadalajara</t>
   </si>
 </sst>
 </file>
@@ -801,7 +834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI35"/>
+  <dimension ref="A1:AI38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -922,25 +955,25 @@
         <v>45131</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G2">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H2">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="I2">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="J2">
         <v>1.06</v>
@@ -955,10 +988,10 @@
         <v>3.25</v>
       </c>
       <c r="N2">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="O2">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="P2">
         <v>1.42</v>
@@ -1018,7 +1051,7 @@
         <v>3.48</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -1029,25 +1062,25 @@
         <v>45131</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D3">
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G3">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H3">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="J3">
         <v>1.06</v>
@@ -1062,10 +1095,10 @@
         <v>3.1</v>
       </c>
       <c r="N3">
-        <v>2.13</v>
+        <v>2.05</v>
       </c>
       <c r="O3">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="P3">
         <v>1.44</v>
@@ -1113,7 +1146,7 @@
         <v>2.72</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF3">
         <v>1.61</v>
@@ -1125,7 +1158,7 @@
         <v>2.45</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1136,22 +1169,22 @@
         <v>45131</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D4">
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G4">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="H4">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>2.55</v>
@@ -1169,10 +1202,10 @@
         <v>3.05</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O4">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="P4">
         <v>1.44</v>
@@ -1232,7 +1265,7 @@
         <v>3.08</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1243,25 +1276,25 @@
         <v>45131</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G5">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="H5">
-        <v>3.18</v>
+        <v>3.25</v>
       </c>
       <c r="I5">
-        <v>3.83</v>
+        <v>3.3</v>
       </c>
       <c r="J5">
         <v>1.05</v>
@@ -1276,10 +1309,10 @@
         <v>2.9</v>
       </c>
       <c r="N5">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="O5">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P5">
         <v>1.44</v>
@@ -1350,25 +1383,25 @@
         <v>45131</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G6">
-        <v>3.73</v>
+        <v>3.75</v>
       </c>
       <c r="H6">
-        <v>3.32</v>
+        <v>3.1</v>
       </c>
       <c r="I6">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="J6">
         <v>1.03</v>
@@ -1383,10 +1416,10 @@
         <v>3.1</v>
       </c>
       <c r="N6">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="P6">
         <v>1.43</v>
@@ -1457,43 +1490,43 @@
         <v>45131</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G7">
-        <v>2.4</v>
+        <v>1.88</v>
       </c>
       <c r="H7">
-        <v>3.42</v>
+        <v>3.5</v>
       </c>
       <c r="I7">
-        <v>2.9</v>
+        <v>3.74</v>
       </c>
       <c r="J7">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K7">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="L7">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="M7">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N7">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="O7">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="P7">
         <v>1.4</v>
@@ -1508,52 +1541,52 @@
         <v>1.95</v>
       </c>
       <c r="T7">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="U7">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="V7">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="X7">
-        <v>1.43</v>
+        <v>0.71</v>
       </c>
       <c r="Y7">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="Z7">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="AA7">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="AB7">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AC7">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD7">
-        <v>2.43</v>
+        <v>2.55</v>
       </c>
       <c r="AE7">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="AF7">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AG7">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AH7">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AI7">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1564,103 +1597,103 @@
         <v>45131</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G8">
-        <v>1.51</v>
+        <v>2.55</v>
       </c>
       <c r="H8">
-        <v>4.54</v>
+        <v>3.1</v>
       </c>
       <c r="I8">
-        <v>5.85</v>
+        <v>2.55</v>
       </c>
       <c r="J8">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="K8">
-        <v>23</v>
+        <v>8.5</v>
       </c>
       <c r="L8">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="M8">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="N8">
-        <v>1.45</v>
+        <v>1.91</v>
       </c>
       <c r="O8">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="P8">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="Q8">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="R8">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <v>1.44</v>
+      </c>
+      <c r="U8">
+        <v>1.33</v>
+      </c>
+      <c r="V8">
+        <v>1.53</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
         <v>1.95</v>
       </c>
-      <c r="T8">
-        <v>1.06</v>
-      </c>
-      <c r="U8">
-        <v>1.12</v>
-      </c>
-      <c r="V8">
-        <v>3.3</v>
-      </c>
-      <c r="W8">
-        <v>2.29</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>1.96</v>
-      </c>
-      <c r="Z8">
-        <v>1.11</v>
-      </c>
-      <c r="AA8">
-        <v>3.07</v>
-      </c>
-      <c r="AB8">
-        <v>1.25</v>
-      </c>
       <c r="AC8">
-        <v>12.2</v>
+        <v>8</v>
       </c>
       <c r="AD8">
-        <v>4.85</v>
+        <v>2.05</v>
       </c>
       <c r="AE8">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AF8">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AG8">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="AH8">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="AI8">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1671,25 +1704,25 @@
         <v>45131</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G9">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H9">
-        <v>3.66</v>
+        <v>3.4</v>
       </c>
       <c r="I9">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J9">
         <v>1.04</v>
@@ -1704,10 +1737,10 @@
         <v>4.28</v>
       </c>
       <c r="N9">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O9">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P9">
         <v>1.33</v>
@@ -1772,156 +1805,156 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2">
         <v>45131</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G10">
-        <v>2.35</v>
+        <v>1.96</v>
       </c>
       <c r="H10">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="I10">
-        <v>2.99</v>
+        <v>3.32</v>
       </c>
       <c r="J10">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K10">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L10">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M10">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N10">
-        <v>2.01</v>
+        <v>1.73</v>
       </c>
       <c r="O10">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="P10">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Q10">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="R10">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T10">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="U10">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="V10">
-        <v>1.53</v>
+        <v>1.76</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="AB10">
-        <v>1.95</v>
+        <v>1.34</v>
       </c>
       <c r="AC10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD10">
-        <v>2.05</v>
+        <v>3.65</v>
       </c>
       <c r="AE10">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="AG10">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="AH10">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AI10">
-        <v>2.7</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2">
         <v>45131</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G11">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H11">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I11">
-        <v>3.11</v>
+        <v>3.17</v>
       </c>
       <c r="J11">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K11">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="L11">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="M11">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N11">
-        <v>2.09</v>
+        <v>1.87</v>
       </c>
       <c r="O11">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="P11">
         <v>1.4</v>
@@ -1936,52 +1969,52 @@
         <v>1.95</v>
       </c>
       <c r="T11">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="U11">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="W11">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <v>0.71</v>
+        <v>1.43</v>
       </c>
       <c r="Y11">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="Z11">
+        <v>1.05</v>
+      </c>
+      <c r="AA11">
+        <v>2.64</v>
+      </c>
+      <c r="AB11">
+        <v>1.75</v>
+      </c>
+      <c r="AC11">
+        <v>8.5</v>
+      </c>
+      <c r="AD11">
+        <v>2.43</v>
+      </c>
+      <c r="AE11">
         <v>1.12</v>
       </c>
-      <c r="AA11">
-        <v>2.68</v>
-      </c>
-      <c r="AB11">
-        <v>1.67</v>
-      </c>
-      <c r="AC11">
-        <v>8</v>
-      </c>
-      <c r="AD11">
-        <v>2.55</v>
-      </c>
-      <c r="AE11">
-        <v>1.2</v>
-      </c>
       <c r="AF11">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AG11">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AH11">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AI11">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1992,103 +2025,103 @@
         <v>45131</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D12">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G12">
-        <v>2.08</v>
+        <v>1.33</v>
       </c>
       <c r="H12">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="I12">
-        <v>3.2</v>
+        <v>7.64</v>
       </c>
       <c r="J12">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="L12">
+        <v>1.14</v>
+      </c>
+      <c r="M12">
+        <v>6</v>
+      </c>
+      <c r="N12">
+        <v>1.41</v>
+      </c>
+      <c r="O12">
+        <v>2.69</v>
+      </c>
+      <c r="P12">
         <v>1.25</v>
       </c>
-      <c r="M12">
+      <c r="Q12">
         <v>3.75</v>
       </c>
-      <c r="N12">
-        <v>1.7</v>
-      </c>
-      <c r="O12">
-        <v>2</v>
-      </c>
-      <c r="P12">
-        <v>1.33</v>
-      </c>
-      <c r="Q12">
-        <v>3.25</v>
-      </c>
       <c r="R12">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T12">
-        <v>1.27</v>
+        <v>1.06</v>
       </c>
       <c r="U12">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="V12">
-        <v>1.76</v>
+        <v>3.3</v>
       </c>
       <c r="W12">
-        <v>1.86</v>
+        <v>2.29</v>
       </c>
       <c r="X12">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>2.2</v>
+        <v>1.96</v>
       </c>
       <c r="Z12">
-        <v>1.64</v>
+        <v>1.11</v>
       </c>
       <c r="AA12">
-        <v>3.84</v>
+        <v>3.07</v>
       </c>
       <c r="AB12">
+        <v>1.25</v>
+      </c>
+      <c r="AC12">
+        <v>12.2</v>
+      </c>
+      <c r="AD12">
+        <v>4.85</v>
+      </c>
+      <c r="AE12">
+        <v>1.18</v>
+      </c>
+      <c r="AF12">
         <v>1.34</v>
       </c>
-      <c r="AC12">
-        <v>7</v>
-      </c>
-      <c r="AD12">
-        <v>3.65</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>1.23</v>
-      </c>
       <c r="AG12">
-        <v>1.43</v>
+        <v>1.61</v>
       </c>
       <c r="AH12">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="AI12">
-        <v>2.17</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -2099,25 +2132,25 @@
         <v>45131</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G13">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="H13">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I13">
-        <v>6</v>
+        <v>6.75</v>
       </c>
       <c r="J13">
         <v>1.03</v>
@@ -2132,10 +2165,10 @@
         <v>4</v>
       </c>
       <c r="N13">
-        <v>1.86</v>
+        <v>1.7</v>
       </c>
       <c r="O13">
-        <v>1.91</v>
+        <v>2.03</v>
       </c>
       <c r="P13">
         <v>1.33</v>
@@ -2206,25 +2239,25 @@
         <v>45131</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D14">
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G14">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H14">
         <v>3.6</v>
       </c>
       <c r="I14">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="J14">
         <v>1.04</v>
@@ -2239,10 +2272,10 @@
         <v>4.3</v>
       </c>
       <c r="N14">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O14">
-        <v>2.2</v>
+        <v>2.11</v>
       </c>
       <c r="P14">
         <v>1.3</v>
@@ -2290,7 +2323,7 @@
         <v>1.65</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AF14">
         <v>1.14</v>
@@ -2313,25 +2346,25 @@
         <v>45131</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H15">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I15">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J15">
         <v>1.06</v>
@@ -2346,10 +2379,10 @@
         <v>3</v>
       </c>
       <c r="N15">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O15">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="P15">
         <v>1.45</v>
@@ -2420,25 +2453,25 @@
         <v>45131</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G16">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="H16">
-        <v>4.05</v>
+        <v>3.4</v>
       </c>
       <c r="I16">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="J16">
         <v>1.04</v>
@@ -2447,13 +2480,13 @@
         <v>7.8</v>
       </c>
       <c r="L16">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M16">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="N16">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="O16">
         <v>1.6</v>
@@ -2527,64 +2560,64 @@
         <v>45131</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D17">
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>19.75</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="W17">
         <v>2</v>
@@ -2602,13 +2635,13 @@
         <v>3.52</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>7.08</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -2634,25 +2667,25 @@
         <v>45131</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D18">
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G18">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="J18">
         <v>1.02</v>
@@ -2667,10 +2700,10 @@
         <v>5.2</v>
       </c>
       <c r="N18">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O18">
-        <v>2.55</v>
+        <v>2.41</v>
       </c>
       <c r="P18">
         <v>1.25</v>
@@ -2718,13 +2751,13 @@
         <v>3.18</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AH18">
         <v>1.6</v>
@@ -2741,16 +2774,16 @@
         <v>45131</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D19">
         <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F19" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G19">
         <v>1.52</v>
@@ -2848,16 +2881,16 @@
         <v>45131</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D20">
         <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F20" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G20">
         <v>2.05</v>
@@ -2955,25 +2988,25 @@
         <v>45131</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D21">
         <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G21">
-        <v>2.44</v>
+        <v>2.37</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="J21">
         <v>1.1</v>
@@ -2982,13 +3015,13 @@
         <v>6</v>
       </c>
       <c r="L21">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M21">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="N21">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="O21">
         <v>1.5</v>
@@ -3051,7 +3084,7 @@
         <v>3.3</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -3062,16 +3095,16 @@
         <v>45131</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22">
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F22" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G22">
         <v>2.23</v>
@@ -3169,210 +3202,210 @@
         <v>45131</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23">
         <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G23">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="H23">
         <v>3.1</v>
       </c>
       <c r="I23">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J23">
+        <v>1.06</v>
+      </c>
+      <c r="K23">
+        <v>9.6</v>
+      </c>
+      <c r="L23">
+        <v>1.31</v>
+      </c>
+      <c r="M23">
+        <v>3.17</v>
+      </c>
+      <c r="N23">
+        <v>1.95</v>
+      </c>
+      <c r="O23">
+        <v>1.7</v>
+      </c>
+      <c r="P23">
+        <v>1.42</v>
+      </c>
+      <c r="Q23">
+        <v>2.65</v>
+      </c>
+      <c r="R23">
+        <v>1.75</v>
+      </c>
+      <c r="S23">
+        <v>1.95</v>
+      </c>
+      <c r="T23">
+        <v>1.29</v>
+      </c>
+      <c r="U23">
+        <v>1.29</v>
+      </c>
+      <c r="V23">
+        <v>1.57</v>
+      </c>
+      <c r="W23">
         <v>1.11</v>
       </c>
-      <c r="K23">
-        <v>6</v>
-      </c>
-      <c r="L23">
-        <v>1.47</v>
-      </c>
-      <c r="M23">
-        <v>2.5</v>
-      </c>
-      <c r="N23">
-        <v>2.4</v>
-      </c>
-      <c r="O23">
-        <v>1.5</v>
-      </c>
-      <c r="P23">
-        <v>1.55</v>
-      </c>
-      <c r="Q23">
-        <v>2.25</v>
-      </c>
-      <c r="R23">
-        <v>2.1</v>
-      </c>
-      <c r="S23">
-        <v>1.65</v>
-      </c>
-      <c r="T23">
-        <v>1.36</v>
-      </c>
-      <c r="U23">
-        <v>1.37</v>
-      </c>
-      <c r="V23">
-        <v>1.51</v>
-      </c>
-      <c r="W23">
-        <v>1.25</v>
-      </c>
       <c r="X23">
-        <v>1.38</v>
+        <v>0.38</v>
       </c>
       <c r="Y23">
-        <v>1.21</v>
+        <v>1.77</v>
       </c>
       <c r="Z23">
-        <v>1.23</v>
+        <v>1.54</v>
       </c>
       <c r="AA23">
-        <v>2.44</v>
+        <v>3.31</v>
       </c>
       <c r="AB23">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AD23">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="AE23">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AG23">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="AH23">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="AI23">
-        <v>2.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:35">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2">
         <v>45131</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G24">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="H24">
-        <v>3.26</v>
+        <v>3.3</v>
       </c>
       <c r="I24">
-        <v>4.26</v>
+        <v>3.9</v>
       </c>
       <c r="J24">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="K24">
-        <v>6.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L24">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="M24">
-        <v>2.55</v>
+        <v>3.34</v>
       </c>
       <c r="N24">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O24">
+        <v>1.83</v>
+      </c>
+      <c r="P24">
+        <v>1.38</v>
+      </c>
+      <c r="Q24">
+        <v>2.9</v>
+      </c>
+      <c r="R24">
+        <v>1.77</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <v>1.23</v>
+      </c>
+      <c r="U24">
+        <v>1.27</v>
+      </c>
+      <c r="V24">
+        <v>1.94</v>
+      </c>
+      <c r="W24">
+        <v>0.89</v>
+      </c>
+      <c r="X24">
+        <v>0.44</v>
+      </c>
+      <c r="Y24">
         <v>1.55</v>
       </c>
-      <c r="P24">
-        <v>1.54</v>
-      </c>
-      <c r="Q24">
-        <v>2.34</v>
-      </c>
-      <c r="R24">
-        <v>2.15</v>
-      </c>
-      <c r="S24">
-        <v>1.66</v>
-      </c>
-      <c r="T24">
-        <v>1.18</v>
-      </c>
-      <c r="U24">
-        <v>1.28</v>
-      </c>
-      <c r="V24">
-        <v>1.83</v>
-      </c>
-      <c r="W24">
-        <v>2.25</v>
-      </c>
-      <c r="X24">
-        <v>0.71</v>
-      </c>
-      <c r="Y24">
-        <v>1.7</v>
-      </c>
       <c r="Z24">
-        <v>1.45</v>
+        <v>1.16</v>
       </c>
       <c r="AA24">
-        <v>3.15</v>
+        <v>2.71</v>
       </c>
       <c r="AB24">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="AC24">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD24">
-        <v>2.99</v>
+        <v>3.16</v>
       </c>
       <c r="AE24">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AG24">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="AH24">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="AI24">
-        <v>3.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3383,25 +3416,25 @@
         <v>45131</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D25">
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F25" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G25">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="H25">
-        <v>3.26</v>
+        <v>3.5</v>
       </c>
       <c r="I25">
-        <v>3.84</v>
+        <v>3.3</v>
       </c>
       <c r="J25">
         <v>1.07</v>
@@ -3416,10 +3449,10 @@
         <v>2.95</v>
       </c>
       <c r="N25">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="O25">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="P25">
         <v>1.46</v>
@@ -3484,323 +3517,323 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2">
         <v>45131</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F26" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="W26">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="X26">
-        <v>0.44</v>
+        <v>1.38</v>
       </c>
       <c r="Y26">
-        <v>1.55</v>
+        <v>1.21</v>
       </c>
       <c r="Z26">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AA26">
-        <v>2.71</v>
+        <v>2.44</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B27" s="2">
         <v>45131</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D27">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F27" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G27">
-        <v>2.19</v>
+        <v>3.3</v>
       </c>
       <c r="H27">
-        <v>3.28</v>
+        <v>3.1</v>
       </c>
       <c r="I27">
-        <v>3.15</v>
+        <v>2.15</v>
       </c>
       <c r="J27">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K27">
-        <v>9.6</v>
+        <v>7.5</v>
       </c>
       <c r="L27">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M27">
-        <v>3.17</v>
+        <v>3</v>
       </c>
       <c r="N27">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="O27">
-        <v>1.76</v>
+        <v>1.6</v>
       </c>
       <c r="P27">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="Q27">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="R27">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T27">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="U27">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="V27">
-        <v>1.57</v>
+        <v>1.35</v>
       </c>
       <c r="W27">
-        <v>1.11</v>
+        <v>0.86</v>
       </c>
       <c r="X27">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="Y27">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="Z27">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="AA27">
-        <v>3.31</v>
+        <v>3.19</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="2">
         <v>45131</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F28" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G28">
-        <v>3.46</v>
+        <v>1.76</v>
       </c>
       <c r="H28">
-        <v>3.38</v>
+        <v>3.35</v>
       </c>
       <c r="I28">
-        <v>2.13</v>
+        <v>4.7</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="N28">
+        <v>2.41</v>
+      </c>
+      <c r="O28">
+        <v>1.5</v>
+      </c>
+      <c r="P28">
+        <v>1.54</v>
+      </c>
+      <c r="Q28">
+        <v>2.34</v>
+      </c>
+      <c r="R28">
         <v>2.15</v>
       </c>
-      <c r="O28">
+      <c r="S28">
+        <v>1.66</v>
+      </c>
+      <c r="T28">
+        <v>1.18</v>
+      </c>
+      <c r="U28">
+        <v>1.28</v>
+      </c>
+      <c r="V28">
+        <v>1.83</v>
+      </c>
+      <c r="W28">
+        <v>2.25</v>
+      </c>
+      <c r="X28">
+        <v>0.71</v>
+      </c>
+      <c r="Y28">
         <v>1.7</v>
       </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>1.8</v>
-      </c>
-      <c r="S28">
-        <v>1.95</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0.86</v>
-      </c>
-      <c r="X28">
-        <v>1</v>
-      </c>
-      <c r="Y28">
-        <v>1.68</v>
-      </c>
       <c r="Z28">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="AA28">
-        <v>3.19</v>
+        <v>3.15</v>
       </c>
       <c r="AB28">
-        <v>2.14</v>
+        <v>1.53</v>
       </c>
       <c r="AC28">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AD28">
-        <v>1.9</v>
+        <v>2.99</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -3811,16 +3844,16 @@
         <v>45131</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D29">
         <v>26</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F29" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G29">
         <v>1.85</v>
@@ -3918,100 +3951,100 @@
         <v>45131</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D30">
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F30" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G30">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="H30">
-        <v>2.93</v>
+        <v>2.9</v>
       </c>
       <c r="I30">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="J30">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K30">
-        <v>6.85</v>
+        <v>9</v>
       </c>
       <c r="L30">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
       <c r="M30">
-        <v>2.38</v>
+        <v>2.81</v>
       </c>
       <c r="N30">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="O30">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="P30">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="Q30">
+        <v>2.45</v>
+      </c>
+      <c r="R30">
+        <v>1.95</v>
+      </c>
+      <c r="S30">
+        <v>1.78</v>
+      </c>
+      <c r="T30">
+        <v>1.3</v>
+      </c>
+      <c r="U30">
+        <v>1.28</v>
+      </c>
+      <c r="V30">
+        <v>1.65</v>
+      </c>
+      <c r="W30">
         <v>2.2</v>
       </c>
-      <c r="R30">
-        <v>2.2</v>
-      </c>
-      <c r="S30">
-        <v>1.62</v>
-      </c>
-      <c r="T30">
-        <v>1.38</v>
-      </c>
-      <c r="U30">
-        <v>1.32</v>
-      </c>
-      <c r="V30">
-        <v>1.48</v>
-      </c>
-      <c r="W30">
-        <v>1.5</v>
-      </c>
       <c r="X30">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="Y30">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="Z30">
-        <v>1.11</v>
+        <v>1.44</v>
       </c>
       <c r="AA30">
-        <v>2.95</v>
+        <v>3.32</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AE30">
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AI30">
         <v>0</v>
@@ -4019,106 +4052,106 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2">
         <v>45131</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F31" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G31">
-        <v>1.26</v>
+        <v>2.53</v>
       </c>
       <c r="H31">
-        <v>5.58</v>
+        <v>2.95</v>
       </c>
       <c r="I31">
-        <v>10.5</v>
+        <v>2.59</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>6.85</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="N31">
+        <v>2.65</v>
+      </c>
+      <c r="O31">
+        <v>1.42</v>
+      </c>
+      <c r="P31">
         <v>1.6</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <v>2.2</v>
       </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
       <c r="R31">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="W31">
-        <v>2.67</v>
+        <v>1.5</v>
       </c>
       <c r="X31">
-        <v>1.17</v>
+        <v>0.83</v>
       </c>
       <c r="Y31">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="Z31">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AA31">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="AE31">
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AI31">
         <v>0</v>
@@ -4126,85 +4159,85 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32" s="2">
         <v>45131</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D32">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F32" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="G32">
-        <v>2.16</v>
+        <v>1.24</v>
       </c>
       <c r="H32">
-        <v>3.25</v>
+        <v>5.1</v>
       </c>
       <c r="I32">
-        <v>3.25</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J32">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>2.81</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>2.17</v>
+        <v>1.62</v>
       </c>
       <c r="O32">
-        <v>1.56</v>
+        <v>2.23</v>
       </c>
       <c r="P32">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="S32">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="U32">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="V32">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="W32">
-        <v>2.2</v>
+        <v>2.67</v>
       </c>
       <c r="X32">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="Y32">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="Z32">
-        <v>1.44</v>
+        <v>1.14</v>
       </c>
       <c r="AA32">
-        <v>3.32</v>
+        <v>2.87</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -4239,16 +4272,16 @@
         <v>45131</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D33">
         <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F33" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G33">
         <v>1.91</v>
@@ -4346,64 +4379,64 @@
         <v>45131</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D34">
         <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F34" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="W34">
         <v>1.67</v>
@@ -4421,13 +4454,13 @@
         <v>2.54</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AE34">
         <v>0</v>
@@ -4453,25 +4486,25 @@
         <v>45131</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F35" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G35">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="H35">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="I35">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="J35">
         <v>1.08</v>
@@ -4486,10 +4519,10 @@
         <v>2.62</v>
       </c>
       <c r="N35">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O35">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P35">
         <v>1.5</v>
@@ -4550,6 +4583,327 @@
       </c>
       <c r="AI35">
         <v>2.88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45131</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>2.8</v>
+      </c>
+      <c r="I36">
+        <v>3.9</v>
+      </c>
+      <c r="J36">
+        <v>1.13</v>
+      </c>
+      <c r="K36">
+        <v>5.25</v>
+      </c>
+      <c r="L36">
+        <v>1.53</v>
+      </c>
+      <c r="M36">
+        <v>2.2</v>
+      </c>
+      <c r="N36">
+        <v>2.75</v>
+      </c>
+      <c r="O36">
+        <v>1.4</v>
+      </c>
+      <c r="P36">
+        <v>1.67</v>
+      </c>
+      <c r="Q36">
+        <v>2.1</v>
+      </c>
+      <c r="R36">
+        <v>2.5</v>
+      </c>
+      <c r="S36">
+        <v>1.5</v>
+      </c>
+      <c r="T36">
+        <v>1.25</v>
+      </c>
+      <c r="U36">
+        <v>1.38</v>
+      </c>
+      <c r="V36">
+        <v>1.75</v>
+      </c>
+      <c r="W36">
+        <v>2.08</v>
+      </c>
+      <c r="X36">
+        <v>0.64</v>
+      </c>
+      <c r="Y36">
+        <v>1.74</v>
+      </c>
+      <c r="Z36">
+        <v>1.31</v>
+      </c>
+      <c r="AA36">
+        <v>3.05</v>
+      </c>
+      <c r="AB36">
+        <v>1.82</v>
+      </c>
+      <c r="AC36">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AD36">
+        <v>2.36</v>
+      </c>
+      <c r="AE36">
+        <v>1.57</v>
+      </c>
+      <c r="AF36">
+        <v>1.95</v>
+      </c>
+      <c r="AG36">
+        <v>2.5</v>
+      </c>
+      <c r="AH36">
+        <v>3.48</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45131</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" t="s">
+        <v>151</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>3.2</v>
+      </c>
+      <c r="I37">
+        <v>3.25</v>
+      </c>
+      <c r="J37">
+        <v>1.03</v>
+      </c>
+      <c r="K37">
+        <v>11</v>
+      </c>
+      <c r="L37">
+        <v>1.24</v>
+      </c>
+      <c r="M37">
+        <v>3.9</v>
+      </c>
+      <c r="N37">
+        <v>1.83</v>
+      </c>
+      <c r="O37">
+        <v>1.83</v>
+      </c>
+      <c r="P37">
+        <v>1.36</v>
+      </c>
+      <c r="Q37">
+        <v>3</v>
+      </c>
+      <c r="R37">
+        <v>1.73</v>
+      </c>
+      <c r="S37">
+        <v>2</v>
+      </c>
+      <c r="T37">
+        <v>1.24</v>
+      </c>
+      <c r="U37">
+        <v>1.27</v>
+      </c>
+      <c r="V37">
+        <v>1.79</v>
+      </c>
+      <c r="W37">
+        <v>1.38</v>
+      </c>
+      <c r="X37">
+        <v>1.25</v>
+      </c>
+      <c r="Y37">
+        <v>1.78</v>
+      </c>
+      <c r="Z37">
+        <v>1.35</v>
+      </c>
+      <c r="AA37">
+        <v>3.13</v>
+      </c>
+      <c r="AB37">
+        <v>1.69</v>
+      </c>
+      <c r="AC37">
+        <v>9.1</v>
+      </c>
+      <c r="AD37">
+        <v>2.61</v>
+      </c>
+      <c r="AE37">
+        <v>1.24</v>
+      </c>
+      <c r="AF37">
+        <v>1.46</v>
+      </c>
+      <c r="AG37">
+        <v>1.82</v>
+      </c>
+      <c r="AH37">
+        <v>2.32</v>
+      </c>
+      <c r="AI37">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45131</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" t="s">
+        <v>152</v>
+      </c>
+      <c r="G38">
+        <v>1.64</v>
+      </c>
+      <c r="H38">
+        <v>3.57</v>
+      </c>
+      <c r="I38">
+        <v>4.55</v>
+      </c>
+      <c r="J38">
+        <v>1.06</v>
+      </c>
+      <c r="K38">
+        <v>8</v>
+      </c>
+      <c r="L38">
+        <v>1.3</v>
+      </c>
+      <c r="M38">
+        <v>3.2</v>
+      </c>
+      <c r="N38">
+        <v>2.01</v>
+      </c>
+      <c r="O38">
+        <v>1.8</v>
+      </c>
+      <c r="P38">
+        <v>1.4</v>
+      </c>
+      <c r="Q38">
+        <v>2.7</v>
+      </c>
+      <c r="R38">
+        <v>1.9</v>
+      </c>
+      <c r="S38">
+        <v>1.83</v>
+      </c>
+      <c r="T38">
+        <v>1.12</v>
+      </c>
+      <c r="U38">
+        <v>1.2</v>
+      </c>
+      <c r="V38">
+        <v>2.15</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>1.43</v>
+      </c>
+      <c r="AC38">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AD38">
+        <v>3.58</v>
+      </c>
+      <c r="AE38">
+        <v>1.31</v>
+      </c>
+      <c r="AF38">
+        <v>1.61</v>
+      </c>
+      <c r="AG38">
+        <v>1.96</v>
+      </c>
+      <c r="AH38">
+        <v>2.45</v>
+      </c>
+      <c r="AI38">
+        <v>3.3</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-07-24_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-24_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -121,12 +121,12 @@
     <t>Odds_Corners_Over115</t>
   </si>
   <si>
+    <t>Japan J2 League</t>
+  </si>
+  <si>
     <t>South Korea K League 2</t>
   </si>
   <si>
-    <t>Japan J2 League</t>
-  </si>
-  <si>
     <t>Romania Liga I</t>
   </si>
   <si>
@@ -136,24 +136,24 @@
     <t>Sweden Superettan</t>
   </si>
   <si>
+    <t>Denmark Superliga</t>
+  </si>
+  <si>
     <t>Poland Ekstraklasa</t>
   </si>
   <si>
-    <t>Denmark Superliga</t>
-  </si>
-  <si>
     <t>Sweden Allsvenskan</t>
   </si>
   <si>
     <t>Norway Eliteserien</t>
   </si>
   <si>
+    <t>Iceland Úrvalsdeild</t>
+  </si>
+  <si>
     <t>Peru Primera División</t>
   </si>
   <si>
-    <t>Iceland Úrvalsdeild</t>
-  </si>
-  <si>
     <t>Bolivia LFPB</t>
   </si>
   <si>
@@ -166,15 +166,15 @@
     <t>Chile Primera B</t>
   </si>
   <si>
+    <t>Brazil Serie A</t>
+  </si>
+  <si>
+    <t>Brazil Serie B</t>
+  </si>
+  <si>
     <t>Uruguay Primera División</t>
   </si>
   <si>
-    <t>Brazil Serie B</t>
-  </si>
-  <si>
-    <t>Brazil Serie A</t>
-  </si>
-  <si>
     <t>Brazil Serie C</t>
   </si>
   <si>
@@ -253,12 +253,12 @@
     <t>22:05:00</t>
   </si>
   <si>
+    <t>Roasso Kumamoto</t>
+  </si>
+  <si>
     <t>Gimpo Citizen</t>
   </si>
   <si>
-    <t>Roasso Kumamoto</t>
-  </si>
-  <si>
     <t>Busan I'Park</t>
   </si>
   <si>
@@ -271,27 +271,27 @@
     <t>Helsingborg</t>
   </si>
   <si>
+    <t>GAIS</t>
+  </si>
+  <si>
+    <t>Nordsjælland</t>
+  </si>
+  <si>
     <t>Korona Kielce</t>
   </si>
   <si>
-    <t>Nordsjælland</t>
-  </si>
-  <si>
-    <t>GAIS</t>
-  </si>
-  <si>
     <t>Sirius</t>
   </si>
   <si>
     <t>Viking</t>
   </si>
   <si>
+    <t>Keflavík</t>
+  </si>
+  <si>
     <t>Deportivo Binacional</t>
   </si>
   <si>
-    <t>Keflavík</t>
-  </si>
-  <si>
     <t>Beroe</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>FH</t>
   </si>
   <si>
+    <t>Vélez Sarsfield</t>
+  </si>
+  <si>
     <t>Talleres Córdoba</t>
   </si>
   <si>
-    <t>Vélez Sarsfield</t>
-  </si>
-  <si>
     <t>Aldosivi</t>
   </si>
   <si>
@@ -319,33 +319,33 @@
     <t>Deportes Santa Cruz</t>
   </si>
   <si>
+    <t>Coritiba</t>
+  </si>
+  <si>
     <t>Universitario de Vinto</t>
   </si>
   <si>
+    <t>Vitória</t>
+  </si>
+  <si>
+    <t>Londrina</t>
+  </si>
+  <si>
     <t>Cerro</t>
   </si>
   <si>
-    <t>Londrina</t>
-  </si>
-  <si>
-    <t>Coritiba</t>
-  </si>
-  <si>
-    <t>Vitória</t>
-  </si>
-  <si>
     <t>Racing Club</t>
   </si>
   <si>
+    <t>Floresta</t>
+  </si>
+  <si>
+    <t>Libertad</t>
+  </si>
+  <si>
     <t>EC São José</t>
   </si>
   <si>
-    <t>Floresta</t>
-  </si>
-  <si>
-    <t>Libertad</t>
-  </si>
-  <si>
     <t>Boca Juniors</t>
   </si>
   <si>
@@ -364,12 +364,12 @@
     <t>Atlante</t>
   </si>
   <si>
+    <t>Fagiano Okayama</t>
+  </si>
+  <si>
     <t>Ansan Greeners</t>
   </si>
   <si>
-    <t>Fagiano Okayama</t>
-  </si>
-  <si>
     <t>Anyang</t>
   </si>
   <si>
@@ -382,27 +382,27 @@
     <t>Trelleborg</t>
   </si>
   <si>
+    <t>Västerås SK</t>
+  </si>
+  <si>
+    <t>Viborg</t>
+  </si>
+  <si>
     <t>Śląsk Wrocław</t>
   </si>
   <si>
-    <t>Viborg</t>
-  </si>
-  <si>
-    <t>Västerås SK</t>
-  </si>
-  <si>
     <t>Mjällby</t>
   </si>
   <si>
     <t>Aalesund</t>
   </si>
   <si>
+    <t>KA</t>
+  </si>
+  <si>
     <t>Deportivo Municipal</t>
   </si>
   <si>
-    <t>KA</t>
-  </si>
-  <si>
     <t>Arda</t>
   </si>
   <si>
@@ -415,12 +415,12 @@
     <t>Fylkir</t>
   </si>
   <si>
+    <t>Unión Santa Fe</t>
+  </si>
+  <si>
     <t>Gimnasia La Plata</t>
   </si>
   <si>
-    <t>Unión Santa Fe</t>
-  </si>
-  <si>
     <t>Brown de Adrogué</t>
   </si>
   <si>
@@ -430,31 +430,31 @@
     <t>Univ. Concepción</t>
   </si>
   <si>
+    <t>Fluminense</t>
+  </si>
+  <si>
     <t>Blooming</t>
   </si>
   <si>
+    <t>Chapecoense</t>
+  </si>
+  <si>
+    <t>Botafogo SP</t>
+  </si>
+  <si>
     <t>Plaza Colonia</t>
   </si>
   <si>
-    <t>Botafogo SP</t>
-  </si>
-  <si>
-    <t>Fluminense</t>
-  </si>
-  <si>
-    <t>Chapecoense</t>
-  </si>
-  <si>
     <t>Central Córdoba SdE</t>
   </si>
   <si>
+    <t>Figueirense</t>
+  </si>
+  <si>
+    <t>Guaireña</t>
+  </si>
+  <si>
     <t>Volta Redonda</t>
-  </si>
-  <si>
-    <t>Figueirense</t>
-  </si>
-  <si>
-    <t>Guaireña</t>
   </si>
   <si>
     <t>Newell's Old Boys</t>
@@ -958,7 +958,7 @@
         <v>58</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
@@ -967,91 +967,91 @@
         <v>116</v>
       </c>
       <c r="G2">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="H2">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I2">
-        <v>3.9</v>
+        <v>2.75</v>
       </c>
       <c r="J2">
         <v>1.06</v>
       </c>
       <c r="K2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L2">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M2">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N2">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="O2">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P2">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q2">
-        <v>2.92</v>
+        <v>2.63</v>
       </c>
       <c r="R2">
         <v>1.83</v>
       </c>
       <c r="S2">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="T2">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="U2">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="V2">
-        <v>1.92</v>
+        <v>1.58</v>
       </c>
       <c r="W2">
-        <v>1.4</v>
+        <v>0.93</v>
       </c>
       <c r="X2">
-        <v>0.2</v>
+        <v>1.31</v>
       </c>
       <c r="Y2">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
       <c r="Z2">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AA2">
+        <v>2.83</v>
+      </c>
+      <c r="AB2">
+        <v>1.63</v>
+      </c>
+      <c r="AC2">
+        <v>8.9</v>
+      </c>
+      <c r="AD2">
         <v>2.72</v>
       </c>
-      <c r="AB2">
-        <v>1.55</v>
-      </c>
-      <c r="AC2">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD2">
-        <v>2.85</v>
-      </c>
       <c r="AE2">
-        <v>1.54</v>
+        <v>1.39</v>
       </c>
       <c r="AF2">
-        <v>1.93</v>
+        <v>1.61</v>
       </c>
       <c r="AG2">
-        <v>2.38</v>
+        <v>1.96</v>
       </c>
       <c r="AH2">
-        <v>3.48</v>
+        <v>2.45</v>
       </c>
       <c r="AI2">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -1065,7 +1065,7 @@
         <v>58</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>80</v>
@@ -1074,96 +1074,96 @@
         <v>117</v>
       </c>
       <c r="G3">
-        <v>2.3</v>
+        <v>1.81</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="I3">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="J3">
         <v>1.06</v>
       </c>
       <c r="K3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L3">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M3">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N3">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="O3">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="P3">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q3">
-        <v>2.63</v>
+        <v>2.92</v>
       </c>
       <c r="R3">
         <v>1.83</v>
       </c>
       <c r="S3">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="T3">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="U3">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="V3">
-        <v>1.58</v>
+        <v>1.92</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="X3">
-        <v>1.17</v>
+        <v>0.45</v>
       </c>
       <c r="Y3">
-        <v>1.52</v>
+        <v>1.3</v>
       </c>
       <c r="Z3">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="AA3">
-        <v>2.83</v>
+        <v>2.72</v>
       </c>
       <c r="AB3">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AC3">
-        <v>8.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3">
-        <v>2.72</v>
+        <v>2.85</v>
       </c>
       <c r="AE3">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="AF3">
-        <v>1.61</v>
+        <v>1.93</v>
       </c>
       <c r="AG3">
-        <v>1.96</v>
+        <v>2.38</v>
       </c>
       <c r="AH3">
-        <v>2.45</v>
+        <v>3.48</v>
       </c>
       <c r="AI3">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2">
         <v>45131</v>
@@ -1181,13 +1181,13 @@
         <v>118</v>
       </c>
       <c r="G4">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I4">
-        <v>2.55</v>
+        <v>2.51</v>
       </c>
       <c r="J4">
         <v>1.06</v>
@@ -1202,10 +1202,10 @@
         <v>3.05</v>
       </c>
       <c r="N4">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O4">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="P4">
         <v>1.44</v>
@@ -1229,10 +1229,10 @@
         <v>1.45</v>
       </c>
       <c r="W4">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="Y4">
         <v>1.58</v>
@@ -1288,13 +1288,13 @@
         <v>119</v>
       </c>
       <c r="G5">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="H5">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I5">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="J5">
         <v>1.05</v>
@@ -1309,10 +1309,10 @@
         <v>2.9</v>
       </c>
       <c r="N5">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="O5">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="P5">
         <v>1.44</v>
@@ -1336,10 +1336,10 @@
         <v>1.63</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1395,13 +1395,13 @@
         <v>120</v>
       </c>
       <c r="G6">
-        <v>3.75</v>
+        <v>3.58</v>
       </c>
       <c r="H6">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I6">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="J6">
         <v>1.03</v>
@@ -1416,10 +1416,10 @@
         <v>3.1</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O6">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P6">
         <v>1.43</v>
@@ -1443,10 +1443,10 @@
         <v>1.2</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X6">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1502,13 +1502,13 @@
         <v>121</v>
       </c>
       <c r="G7">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="H7">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I7">
-        <v>3.74</v>
+        <v>3.35</v>
       </c>
       <c r="J7">
         <v>1.05</v>
@@ -1523,10 +1523,10 @@
         <v>3.3</v>
       </c>
       <c r="N7">
-        <v>1.89</v>
+        <v>2.03</v>
       </c>
       <c r="O7">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="P7">
         <v>1.4</v>
@@ -1550,10 +1550,10 @@
         <v>1.85</v>
       </c>
       <c r="W7">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="Y7">
         <v>1.56</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2">
         <v>45131</v>
@@ -1600,7 +1600,7 @@
         <v>62</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>85</v>
@@ -1609,96 +1609,96 @@
         <v>122</v>
       </c>
       <c r="G8">
-        <v>2.55</v>
+        <v>2.08</v>
       </c>
       <c r="H8">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I8">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="J8">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K8">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L8">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M8">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N8">
-        <v>1.91</v>
+        <v>1.76</v>
       </c>
       <c r="O8">
-        <v>1.75</v>
+        <v>1.96</v>
       </c>
       <c r="P8">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Q8">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="R8">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T8">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="U8">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="V8">
-        <v>1.53</v>
+        <v>1.76</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="AB8">
-        <v>1.95</v>
+        <v>1.34</v>
       </c>
       <c r="AC8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD8">
-        <v>2.05</v>
+        <v>3.65</v>
       </c>
       <c r="AE8">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="AG8">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="AH8">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AI8">
-        <v>2.7</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2">
         <v>45131</v>
@@ -1716,13 +1716,13 @@
         <v>123</v>
       </c>
       <c r="G9">
-        <v>2.15</v>
+        <v>2.09</v>
       </c>
       <c r="H9">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I9">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J9">
         <v>1.04</v>
@@ -1737,10 +1737,10 @@
         <v>4.28</v>
       </c>
       <c r="N9">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>2.19</v>
       </c>
       <c r="P9">
         <v>1.33</v>
@@ -1764,7 +1764,7 @@
         <v>1.68</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2">
         <v>45131</v>
@@ -1814,7 +1814,7 @@
         <v>62</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>87</v>
@@ -1823,91 +1823,91 @@
         <v>124</v>
       </c>
       <c r="G10">
-        <v>1.96</v>
+        <v>2.42</v>
       </c>
       <c r="H10">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="I10">
-        <v>3.32</v>
+        <v>2.8</v>
       </c>
       <c r="J10">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L10">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M10">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N10">
-        <v>1.73</v>
+        <v>1.97</v>
       </c>
       <c r="O10">
-        <v>1.99</v>
+        <v>1.81</v>
       </c>
       <c r="P10">
+        <v>1.4</v>
+      </c>
+      <c r="Q10">
+        <v>2.75</v>
+      </c>
+      <c r="R10">
+        <v>1.75</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>1.44</v>
+      </c>
+      <c r="U10">
         <v>1.33</v>
       </c>
-      <c r="Q10">
-        <v>3.25</v>
-      </c>
-      <c r="R10">
-        <v>1.67</v>
-      </c>
-      <c r="S10">
-        <v>2.1</v>
-      </c>
-      <c r="T10">
-        <v>1.27</v>
-      </c>
-      <c r="U10">
-        <v>1.27</v>
-      </c>
       <c r="V10">
-        <v>1.76</v>
+        <v>1.53</v>
       </c>
       <c r="W10">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>2.14</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>3.84</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>1.34</v>
+        <v>1.95</v>
       </c>
       <c r="AC10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD10">
-        <v>3.65</v>
+        <v>2.05</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF10">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="AG10">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="AH10">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="AI10">
-        <v>2.17</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1930,13 +1930,13 @@
         <v>125</v>
       </c>
       <c r="G11">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H11">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I11">
-        <v>3.17</v>
+        <v>3.05</v>
       </c>
       <c r="J11">
         <v>1.03</v>
@@ -1951,10 +1951,10 @@
         <v>3.5</v>
       </c>
       <c r="N11">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="O11">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="P11">
         <v>1.4</v>
@@ -1978,10 +1978,10 @@
         <v>1.65</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="X11">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="Y11">
         <v>1.59</v>
@@ -2037,13 +2037,13 @@
         <v>126</v>
       </c>
       <c r="G12">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="H12">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="I12">
-        <v>7.64</v>
+        <v>6</v>
       </c>
       <c r="J12">
         <v>1.01</v>
@@ -2058,10 +2058,10 @@
         <v>6</v>
       </c>
       <c r="N12">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="O12">
-        <v>2.69</v>
+        <v>2.38</v>
       </c>
       <c r="P12">
         <v>1.25</v>
@@ -2085,7 +2085,7 @@
         <v>3.3</v>
       </c>
       <c r="W12">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>63</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>90</v>
@@ -2144,91 +2144,91 @@
         <v>127</v>
       </c>
       <c r="G13">
-        <v>1.38</v>
+        <v>3.2</v>
       </c>
       <c r="H13">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="I13">
-        <v>6.75</v>
+        <v>2.03</v>
       </c>
       <c r="J13">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K13">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="L13">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="M13">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="N13">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O13">
-        <v>2.03</v>
+        <v>2.21</v>
       </c>
       <c r="P13">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q13">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R13">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="S13">
-        <v>1.83</v>
+        <v>2.4</v>
       </c>
       <c r="T13">
-        <v>1.1</v>
+        <v>1.72</v>
       </c>
       <c r="U13">
+        <v>1.27</v>
+      </c>
+      <c r="V13">
+        <v>1.25</v>
+      </c>
+      <c r="W13">
+        <v>0.5</v>
+      </c>
+      <c r="X13">
+        <v>0.86</v>
+      </c>
+      <c r="Y13">
         <v>1.16</v>
       </c>
-      <c r="V13">
-        <v>2.8</v>
-      </c>
-      <c r="W13">
-        <v>1.6</v>
-      </c>
-      <c r="X13">
-        <v>1.4</v>
-      </c>
-      <c r="Y13">
-        <v>1.9</v>
-      </c>
       <c r="Z13">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AA13">
-        <v>3.14</v>
+        <v>2.42</v>
       </c>
       <c r="AB13">
-        <v>1.25</v>
+        <v>2.63</v>
       </c>
       <c r="AC13">
         <v>10</v>
       </c>
       <c r="AD13">
-        <v>4.5</v>
+        <v>1.65</v>
       </c>
       <c r="AE13">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="AF13">
-        <v>1.39</v>
+        <v>1.14</v>
       </c>
       <c r="AG13">
-        <v>1.7</v>
+        <v>1.29</v>
       </c>
       <c r="AH13">
-        <v>2.15</v>
+        <v>1.52</v>
       </c>
       <c r="AI13">
-        <v>2.85</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2242,7 +2242,7 @@
         <v>63</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
         <v>91</v>
@@ -2251,91 +2251,91 @@
         <v>128</v>
       </c>
       <c r="G14">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H14">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>1.03</v>
+      </c>
+      <c r="K14">
+        <v>15</v>
+      </c>
+      <c r="L14">
+        <v>1.22</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>1.86</v>
+      </c>
+      <c r="O14">
         <v>1.91</v>
       </c>
-      <c r="J14">
-        <v>1.04</v>
-      </c>
-      <c r="K14">
-        <v>8.5</v>
-      </c>
-      <c r="L14">
-        <v>1.17</v>
-      </c>
-      <c r="M14">
-        <v>4.3</v>
-      </c>
-      <c r="N14">
-        <v>1.65</v>
-      </c>
-      <c r="O14">
-        <v>2.11</v>
-      </c>
       <c r="P14">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q14">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R14">
-        <v>1.53</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>2.4</v>
+        <v>1.83</v>
       </c>
       <c r="T14">
-        <v>1.72</v>
+        <v>1.1</v>
       </c>
       <c r="U14">
+        <v>1.16</v>
+      </c>
+      <c r="V14">
+        <v>2.8</v>
+      </c>
+      <c r="W14">
+        <v>1.73</v>
+      </c>
+      <c r="X14">
         <v>1.27</v>
       </c>
-      <c r="V14">
+      <c r="Y14">
+        <v>1.9</v>
+      </c>
+      <c r="Z14">
+        <v>1.24</v>
+      </c>
+      <c r="AA14">
+        <v>3.14</v>
+      </c>
+      <c r="AB14">
         <v>1.25</v>
-      </c>
-      <c r="W14">
-        <v>0.57</v>
-      </c>
-      <c r="X14">
-        <v>0.5</v>
-      </c>
-      <c r="Y14">
-        <v>1.16</v>
-      </c>
-      <c r="Z14">
-        <v>1.26</v>
-      </c>
-      <c r="AA14">
-        <v>2.42</v>
-      </c>
-      <c r="AB14">
-        <v>2.63</v>
       </c>
       <c r="AC14">
         <v>10</v>
       </c>
       <c r="AD14">
-        <v>1.65</v>
+        <v>4.5</v>
       </c>
       <c r="AE14">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="AF14">
-        <v>1.14</v>
+        <v>1.39</v>
       </c>
       <c r="AG14">
-        <v>1.29</v>
+        <v>1.7</v>
       </c>
       <c r="AH14">
-        <v>1.52</v>
+        <v>2.15</v>
       </c>
       <c r="AI14">
-        <v>1.87</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2358,13 +2358,13 @@
         <v>129</v>
       </c>
       <c r="G15">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H15">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I15">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J15">
         <v>1.06</v>
@@ -2379,10 +2379,10 @@
         <v>3</v>
       </c>
       <c r="N15">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="O15">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="P15">
         <v>1.45</v>
@@ -2406,7 +2406,7 @@
         <v>1.2</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -2421,28 +2421,28 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2465,13 +2465,13 @@
         <v>130</v>
       </c>
       <c r="G16">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H16">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="I16">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J16">
         <v>1.04</v>
@@ -2480,16 +2480,16 @@
         <v>7.8</v>
       </c>
       <c r="L16">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M16">
+        <v>2.35</v>
+      </c>
+      <c r="N16">
         <v>2.3</v>
       </c>
-      <c r="N16">
-        <v>2.19</v>
-      </c>
       <c r="O16">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="P16">
         <v>1.44</v>
@@ -2513,10 +2513,10 @@
         <v>2.92</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -2572,13 +2572,13 @@
         <v>131</v>
       </c>
       <c r="G17">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="H17">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J17">
         <v>1.01</v>
@@ -2593,10 +2593,10 @@
         <v>5.25</v>
       </c>
       <c r="N17">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="O17">
-        <v>2.35</v>
+        <v>2.71</v>
       </c>
       <c r="P17">
         <v>1.25</v>
@@ -2620,10 +2620,10 @@
         <v>3.75</v>
       </c>
       <c r="W17">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X17">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="Y17">
         <v>2.38</v>
@@ -2644,24 +2644,24 @@
         <v>7.08</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2">
         <v>45131</v>
@@ -2679,13 +2679,13 @@
         <v>132</v>
       </c>
       <c r="G18">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="H18">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I18">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="J18">
         <v>1.02</v>
@@ -2700,10 +2700,10 @@
         <v>5.2</v>
       </c>
       <c r="N18">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O18">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="P18">
         <v>1.25</v>
@@ -2727,10 +2727,10 @@
         <v>1.9</v>
       </c>
       <c r="W18">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="X18">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="Y18">
         <v>1.75</v>
@@ -2786,91 +2786,91 @@
         <v>133</v>
       </c>
       <c r="G19">
-        <v>1.52</v>
+        <v>2.05</v>
       </c>
       <c r="H19">
-        <v>4.05</v>
+        <v>2.9</v>
       </c>
       <c r="I19">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="J19">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="K19">
-        <v>9.449999999999999</v>
+        <v>6.25</v>
       </c>
       <c r="L19">
-        <v>1.31</v>
+        <v>1.58</v>
       </c>
       <c r="M19">
-        <v>3.32</v>
+        <v>2.2</v>
       </c>
       <c r="N19">
-        <v>1.97</v>
+        <v>2.8</v>
       </c>
       <c r="O19">
-        <v>1.8</v>
+        <v>1.38</v>
       </c>
       <c r="P19">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="Q19">
-        <v>2.78</v>
+        <v>2.2</v>
       </c>
       <c r="R19">
-        <v>2.04</v>
+        <v>2.25</v>
       </c>
       <c r="S19">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="T19">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="U19">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="V19">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="W19">
-        <v>1.85</v>
+        <v>1.29</v>
       </c>
       <c r="X19">
-        <v>0.6899999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="Y19">
-        <v>1.54</v>
+        <v>1.28</v>
       </c>
       <c r="Z19">
-        <v>1.31</v>
+        <v>1.08</v>
       </c>
       <c r="AA19">
-        <v>2.85</v>
+        <v>2.36</v>
       </c>
       <c r="AB19">
-        <v>1.41</v>
+        <v>1.64</v>
       </c>
       <c r="AC19">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD19">
-        <v>3.35</v>
+        <v>2.64</v>
       </c>
       <c r="AE19">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="AF19">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="AG19">
-        <v>1.65</v>
+        <v>1.98</v>
       </c>
       <c r="AH19">
-        <v>2.09</v>
+        <v>2.58</v>
       </c>
       <c r="AI19">
-        <v>2.72</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2893,91 +2893,91 @@
         <v>134</v>
       </c>
       <c r="G20">
-        <v>2.05</v>
+        <v>1.52</v>
       </c>
       <c r="H20">
-        <v>2.9</v>
+        <v>4.05</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="J20">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="K20">
-        <v>6.25</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="L20">
-        <v>1.58</v>
+        <v>1.31</v>
       </c>
       <c r="M20">
-        <v>2.2</v>
+        <v>3.32</v>
       </c>
       <c r="N20">
-        <v>2.8</v>
+        <v>1.97</v>
       </c>
       <c r="O20">
-        <v>1.38</v>
+        <v>1.8</v>
       </c>
       <c r="P20">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="Q20">
-        <v>2.2</v>
+        <v>2.78</v>
       </c>
       <c r="R20">
-        <v>2.25</v>
+        <v>2.04</v>
       </c>
       <c r="S20">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="T20">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="U20">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="V20">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="W20">
+        <v>1.79</v>
+      </c>
+      <c r="X20">
+        <v>0.71</v>
+      </c>
+      <c r="Y20">
+        <v>1.54</v>
+      </c>
+      <c r="Z20">
         <v>1.31</v>
       </c>
-      <c r="X20">
-        <v>0.92</v>
-      </c>
-      <c r="Y20">
-        <v>1.28</v>
-      </c>
-      <c r="Z20">
-        <v>1.08</v>
-      </c>
       <c r="AA20">
-        <v>2.36</v>
+        <v>2.85</v>
       </c>
       <c r="AB20">
-        <v>1.64</v>
+        <v>1.41</v>
       </c>
       <c r="AC20">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD20">
-        <v>2.64</v>
+        <v>3.35</v>
       </c>
       <c r="AE20">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AF20">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="AG20">
-        <v>1.98</v>
+        <v>1.65</v>
       </c>
       <c r="AH20">
-        <v>2.58</v>
+        <v>2.09</v>
       </c>
       <c r="AI20">
-        <v>3.48</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -3000,13 +3000,13 @@
         <v>135</v>
       </c>
       <c r="G21">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="H21">
         <v>2.8</v>
       </c>
       <c r="I21">
-        <v>2.87</v>
+        <v>3.4</v>
       </c>
       <c r="J21">
         <v>1.1</v>
@@ -3021,10 +3021,10 @@
         <v>2.43</v>
       </c>
       <c r="N21">
-        <v>2.37</v>
+        <v>2.36</v>
       </c>
       <c r="O21">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="P21">
         <v>1.58</v>
@@ -3214,13 +3214,13 @@
         <v>137</v>
       </c>
       <c r="G23">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="H23">
         <v>3.1</v>
       </c>
       <c r="I23">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="J23">
         <v>1.06</v>
@@ -3235,10 +3235,10 @@
         <v>3.17</v>
       </c>
       <c r="N23">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O23">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P23">
         <v>1.42</v>
@@ -3295,15 +3295,15 @@
         <v>0</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="24" spans="1:35">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2">
         <v>45131</v>
@@ -3312,7 +3312,7 @@
         <v>71</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
         <v>101</v>
@@ -3321,96 +3321,96 @@
         <v>138</v>
       </c>
       <c r="G24">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="H24">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="I24">
-        <v>3.9</v>
+        <v>2.19</v>
       </c>
       <c r="J24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K24">
-        <v>9.199999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="L24">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="M24">
-        <v>3.34</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="O24">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="P24">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="Q24">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="R24">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T24">
-        <v>1.23</v>
+        <v>1.67</v>
       </c>
       <c r="U24">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="V24">
-        <v>1.94</v>
+        <v>1.35</v>
       </c>
       <c r="W24">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="X24">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="Y24">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="Z24">
-        <v>1.16</v>
+        <v>1.51</v>
       </c>
       <c r="AA24">
-        <v>2.71</v>
+        <v>3.19</v>
       </c>
       <c r="AB24">
-        <v>1.51</v>
+        <v>1.82</v>
       </c>
       <c r="AC24">
         <v>8.5</v>
       </c>
       <c r="AD24">
-        <v>3.16</v>
+        <v>2.23</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="25" spans="1:35">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2">
         <v>45131</v>
@@ -3419,7 +3419,7 @@
         <v>71</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
         <v>102</v>
@@ -3428,91 +3428,91 @@
         <v>139</v>
       </c>
       <c r="G25">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I25">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="J25">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="K25">
-        <v>7.75</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L25">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="M25">
-        <v>2.95</v>
+        <v>3.34</v>
       </c>
       <c r="N25">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="O25">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="P25">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="Q25">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="R25">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="S25">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="U25">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="V25">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="W25">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="X25">
-        <v>0.6</v>
+        <v>0.44</v>
       </c>
       <c r="Y25">
-        <v>1.34</v>
+        <v>1.55</v>
       </c>
       <c r="Z25">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="AA25">
-        <v>2.45</v>
+        <v>2.71</v>
       </c>
       <c r="AB25">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="AC25">
         <v>8.5</v>
       </c>
       <c r="AD25">
-        <v>3.1</v>
+        <v>3.16</v>
       </c>
       <c r="AE25">
-        <v>1.21</v>
+        <v>1.39</v>
       </c>
       <c r="AF25">
-        <v>1.4</v>
+        <v>1.66</v>
       </c>
       <c r="AG25">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="AH25">
-        <v>2.17</v>
+        <v>2.75</v>
       </c>
       <c r="AI25">
-        <v>2.88</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -3535,96 +3535,96 @@
         <v>140</v>
       </c>
       <c r="G26">
-        <v>2.5</v>
+        <v>1.71</v>
       </c>
       <c r="H26">
-        <v>2.87</v>
+        <v>3.2</v>
       </c>
       <c r="I26">
-        <v>2.87</v>
+        <v>4.95</v>
       </c>
       <c r="J26">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="K26">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L26">
         <v>1.47</v>
       </c>
       <c r="M26">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="N26">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="O26">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P26">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="Q26">
+        <v>2.34</v>
+      </c>
+      <c r="R26">
+        <v>2.15</v>
+      </c>
+      <c r="S26">
+        <v>1.66</v>
+      </c>
+      <c r="T26">
+        <v>1.18</v>
+      </c>
+      <c r="U26">
+        <v>1.28</v>
+      </c>
+      <c r="V26">
+        <v>1.83</v>
+      </c>
+      <c r="W26">
         <v>2.25</v>
       </c>
-      <c r="R26">
-        <v>2.1</v>
-      </c>
-      <c r="S26">
-        <v>1.65</v>
-      </c>
-      <c r="T26">
-        <v>1.36</v>
-      </c>
-      <c r="U26">
-        <v>1.37</v>
-      </c>
-      <c r="V26">
-        <v>1.51</v>
-      </c>
-      <c r="W26">
-        <v>1.25</v>
-      </c>
       <c r="X26">
-        <v>1.38</v>
+        <v>0.71</v>
       </c>
       <c r="Y26">
-        <v>1.21</v>
+        <v>1.7</v>
       </c>
       <c r="Z26">
-        <v>1.23</v>
+        <v>1.45</v>
       </c>
       <c r="AA26">
-        <v>2.44</v>
+        <v>3.15</v>
       </c>
       <c r="AB26">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="AC26">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="AD26">
-        <v>2.27</v>
+        <v>2.99</v>
       </c>
       <c r="AE26">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AF26">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="AG26">
-        <v>1.56</v>
+        <v>1.87</v>
       </c>
       <c r="AH26">
-        <v>1.92</v>
+        <v>2.29</v>
       </c>
       <c r="AI26">
-        <v>2.33</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2">
         <v>45131</v>
@@ -3633,7 +3633,7 @@
         <v>71</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
         <v>104</v>
@@ -3642,96 +3642,96 @@
         <v>141</v>
       </c>
       <c r="G27">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="H27">
         <v>3.1</v>
       </c>
       <c r="I27">
-        <v>2.15</v>
+        <v>2.79</v>
       </c>
       <c r="J27">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="K27">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="L27">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="M27">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N27">
+        <v>2.4</v>
+      </c>
+      <c r="O27">
+        <v>1.46</v>
+      </c>
+      <c r="P27">
+        <v>1.55</v>
+      </c>
+      <c r="Q27">
+        <v>2.25</v>
+      </c>
+      <c r="R27">
         <v>2.1</v>
       </c>
-      <c r="O27">
-        <v>1.6</v>
-      </c>
-      <c r="P27">
-        <v>1.5</v>
-      </c>
-      <c r="Q27">
-        <v>2.5</v>
-      </c>
-      <c r="R27">
-        <v>1.95</v>
-      </c>
       <c r="S27">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="T27">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="U27">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="V27">
-        <v>1.35</v>
+        <v>1.51</v>
       </c>
       <c r="W27">
-        <v>0.86</v>
+        <v>1.25</v>
       </c>
       <c r="X27">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="Y27">
-        <v>1.68</v>
+        <v>1.21</v>
       </c>
       <c r="Z27">
-        <v>1.51</v>
+        <v>1.23</v>
       </c>
       <c r="AA27">
-        <v>3.19</v>
+        <v>2.44</v>
       </c>
       <c r="AB27">
-        <v>2.16</v>
+        <v>1.83</v>
       </c>
       <c r="AC27">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AD27">
-        <v>1.9</v>
+        <v>2.27</v>
       </c>
       <c r="AE27">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AF27">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AG27">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="AH27">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="AI27">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28" s="2">
         <v>45131</v>
@@ -3740,7 +3740,7 @@
         <v>71</v>
       </c>
       <c r="D28">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
         <v>105</v>
@@ -3749,91 +3749,91 @@
         <v>142</v>
       </c>
       <c r="G28">
-        <v>1.76</v>
+        <v>1.98</v>
       </c>
       <c r="H28">
         <v>3.35</v>
       </c>
       <c r="I28">
-        <v>4.7</v>
+        <v>3.65</v>
       </c>
       <c r="J28">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="K28">
-        <v>6.5</v>
+        <v>7.75</v>
       </c>
       <c r="L28">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="M28">
+        <v>2.95</v>
+      </c>
+      <c r="N28">
+        <v>2.11</v>
+      </c>
+      <c r="O28">
+        <v>1.68</v>
+      </c>
+      <c r="P28">
+        <v>1.46</v>
+      </c>
+      <c r="Q28">
         <v>2.55</v>
       </c>
-      <c r="N28">
-        <v>2.41</v>
-      </c>
-      <c r="O28">
+      <c r="R28">
+        <v>1.9</v>
+      </c>
+      <c r="S28">
+        <v>1.83</v>
+      </c>
+      <c r="T28">
+        <v>1.2</v>
+      </c>
+      <c r="U28">
+        <v>1.25</v>
+      </c>
+      <c r="V28">
+        <v>1.85</v>
+      </c>
+      <c r="W28">
+        <v>1.4</v>
+      </c>
+      <c r="X28">
+        <v>0.6</v>
+      </c>
+      <c r="Y28">
+        <v>1.34</v>
+      </c>
+      <c r="Z28">
+        <v>1.11</v>
+      </c>
+      <c r="AA28">
+        <v>2.45</v>
+      </c>
+      <c r="AB28">
         <v>1.5</v>
       </c>
-      <c r="P28">
-        <v>1.54</v>
-      </c>
-      <c r="Q28">
-        <v>2.34</v>
-      </c>
-      <c r="R28">
-        <v>2.15</v>
-      </c>
-      <c r="S28">
-        <v>1.66</v>
-      </c>
-      <c r="T28">
-        <v>1.18</v>
-      </c>
-      <c r="U28">
-        <v>1.28</v>
-      </c>
-      <c r="V28">
-        <v>1.83</v>
-      </c>
-      <c r="W28">
-        <v>2.25</v>
-      </c>
-      <c r="X28">
-        <v>0.71</v>
-      </c>
-      <c r="Y28">
+      <c r="AC28">
+        <v>8.5</v>
+      </c>
+      <c r="AD28">
+        <v>3.1</v>
+      </c>
+      <c r="AE28">
+        <v>1.21</v>
+      </c>
+      <c r="AF28">
+        <v>1.4</v>
+      </c>
+      <c r="AG28">
         <v>1.7</v>
       </c>
-      <c r="Z28">
-        <v>1.45</v>
-      </c>
-      <c r="AA28">
-        <v>3.15</v>
-      </c>
-      <c r="AB28">
-        <v>1.53</v>
-      </c>
-      <c r="AC28">
-        <v>9.5</v>
-      </c>
-      <c r="AD28">
-        <v>2.99</v>
-      </c>
-      <c r="AE28">
-        <v>1.24</v>
-      </c>
-      <c r="AF28">
-        <v>1.53</v>
-      </c>
-      <c r="AG28">
-        <v>1.87</v>
-      </c>
       <c r="AH28">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AI28">
-        <v>3.14</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -3963,96 +3963,96 @@
         <v>144</v>
       </c>
       <c r="G30">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="H30">
-        <v>2.9</v>
+        <v>2.81</v>
       </c>
       <c r="I30">
-        <v>3.2</v>
+        <v>2.91</v>
       </c>
       <c r="J30">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K30">
-        <v>9</v>
+        <v>6.85</v>
       </c>
       <c r="L30">
+        <v>1.51</v>
+      </c>
+      <c r="M30">
+        <v>2.38</v>
+      </c>
+      <c r="N30">
+        <v>2.63</v>
+      </c>
+      <c r="O30">
+        <v>1.39</v>
+      </c>
+      <c r="P30">
+        <v>1.6</v>
+      </c>
+      <c r="Q30">
+        <v>2.2</v>
+      </c>
+      <c r="R30">
+        <v>2.2</v>
+      </c>
+      <c r="S30">
+        <v>1.62</v>
+      </c>
+      <c r="T30">
         <v>1.38</v>
       </c>
-      <c r="M30">
-        <v>2.81</v>
-      </c>
-      <c r="N30">
+      <c r="U30">
+        <v>1.32</v>
+      </c>
+      <c r="V30">
+        <v>1.48</v>
+      </c>
+      <c r="W30">
+        <v>1.5</v>
+      </c>
+      <c r="X30">
+        <v>0.83</v>
+      </c>
+      <c r="Y30">
+        <v>1.84</v>
+      </c>
+      <c r="Z30">
+        <v>1.11</v>
+      </c>
+      <c r="AA30">
+        <v>2.95</v>
+      </c>
+      <c r="AB30">
+        <v>1.61</v>
+      </c>
+      <c r="AC30">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD30">
+        <v>2.61</v>
+      </c>
+      <c r="AE30">
+        <v>1.23</v>
+      </c>
+      <c r="AF30">
+        <v>1.4</v>
+      </c>
+      <c r="AG30">
+        <v>1.8</v>
+      </c>
+      <c r="AH30">
         <v>2.2</v>
       </c>
-      <c r="O30">
-        <v>1.53</v>
-      </c>
-      <c r="P30">
-        <v>1.48</v>
-      </c>
-      <c r="Q30">
-        <v>2.45</v>
-      </c>
-      <c r="R30">
-        <v>1.95</v>
-      </c>
-      <c r="S30">
-        <v>1.78</v>
-      </c>
-      <c r="T30">
-        <v>1.3</v>
-      </c>
-      <c r="U30">
-        <v>1.28</v>
-      </c>
-      <c r="V30">
-        <v>1.65</v>
-      </c>
-      <c r="W30">
-        <v>2.2</v>
-      </c>
-      <c r="X30">
-        <v>1</v>
-      </c>
-      <c r="Y30">
-        <v>1.88</v>
-      </c>
-      <c r="Z30">
-        <v>1.44</v>
-      </c>
-      <c r="AA30">
-        <v>3.32</v>
-      </c>
-      <c r="AB30">
-        <v>1.68</v>
-      </c>
-      <c r="AC30">
-        <v>8.9</v>
-      </c>
-      <c r="AD30">
-        <v>2.44</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>1.41</v>
-      </c>
-      <c r="AG30">
-        <v>1.75</v>
-      </c>
-      <c r="AH30">
-        <v>2.17</v>
-      </c>
       <c r="AI30">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B31" s="2">
         <v>45131</v>
@@ -4061,7 +4061,7 @@
         <v>73</v>
       </c>
       <c r="D31">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
         <v>108</v>
@@ -4070,88 +4070,88 @@
         <v>145</v>
       </c>
       <c r="G31">
-        <v>2.53</v>
+        <v>1.25</v>
       </c>
       <c r="H31">
-        <v>2.95</v>
+        <v>5.75</v>
       </c>
       <c r="I31">
-        <v>2.59</v>
+        <v>9</v>
       </c>
       <c r="J31">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>6.85</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>2.65</v>
+        <v>1.62</v>
       </c>
       <c r="O31">
-        <v>1.42</v>
+        <v>2.23</v>
       </c>
       <c r="P31">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>1.5</v>
+        <v>2.67</v>
       </c>
       <c r="X31">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="Y31">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="Z31">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AA31">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="AB31">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD31">
-        <v>2.61</v>
+        <v>0</v>
       </c>
       <c r="AE31">
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AG31">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AH31">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AI31">
         <v>0</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2">
         <v>45131</v>
@@ -4168,7 +4168,7 @@
         <v>73</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
         <v>109</v>
@@ -4177,91 +4177,91 @@
         <v>146</v>
       </c>
       <c r="G32">
-        <v>1.24</v>
+        <v>2.15</v>
       </c>
       <c r="H32">
-        <v>5.1</v>
+        <v>3.05</v>
       </c>
       <c r="I32">
-        <v>8.300000000000001</v>
+        <v>3.25</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="N32">
-        <v>1.62</v>
+        <v>2.17</v>
       </c>
       <c r="O32">
-        <v>2.23</v>
+        <v>1.56</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="W32">
-        <v>2.67</v>
+        <v>2.2</v>
       </c>
       <c r="X32">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="Y32">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="Z32">
-        <v>1.14</v>
+        <v>1.44</v>
       </c>
       <c r="AA32">
-        <v>2.87</v>
+        <v>3.32</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -4391,13 +4391,13 @@
         <v>148</v>
       </c>
       <c r="G34">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H34">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J34">
         <v>1.03</v>
@@ -4412,10 +4412,10 @@
         <v>3.04</v>
       </c>
       <c r="N34">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="O34">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="P34">
         <v>1.38</v>
@@ -4463,19 +4463,19 @@
         <v>2.8</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG34">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="35" spans="1:35">
@@ -4498,13 +4498,13 @@
         <v>149</v>
       </c>
       <c r="G35">
-        <v>2.25</v>
+        <v>2.43</v>
       </c>
       <c r="H35">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="J35">
         <v>1.08</v>
@@ -4519,10 +4519,10 @@
         <v>2.62</v>
       </c>
       <c r="N35">
-        <v>2.25</v>
+        <v>2.43</v>
       </c>
       <c r="O35">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="P35">
         <v>1.5</v>
@@ -4605,13 +4605,13 @@
         <v>150</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H36">
         <v>2.8</v>
       </c>
       <c r="I36">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J36">
         <v>1.13</v>
@@ -4620,16 +4620,16 @@
         <v>5.25</v>
       </c>
       <c r="L36">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="M36">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N36">
-        <v>2.75</v>
+        <v>2.61</v>
       </c>
       <c r="O36">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P36">
         <v>1.67</v>
@@ -4689,7 +4689,7 @@
         <v>3.48</v>
       </c>
       <c r="AI36">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="37" spans="1:35">
@@ -4712,13 +4712,13 @@
         <v>151</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H37">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I37">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="J37">
         <v>1.03</v>
@@ -4733,10 +4733,10 @@
         <v>3.9</v>
       </c>
       <c r="N37">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="O37">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="P37">
         <v>1.36</v>
